--- a/data/excel_files_reduced_clean/test_excel_10_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_10_reduced_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="InventoryData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InventoryData" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,20 +480,15 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Lookup_Product_Name</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Device</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>Match_Stock</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Count_Low_Stock</t>
         </is>
@@ -541,18 +536,14 @@
         <v/>
       </c>
       <c r="L2">
-        <f>VLOOKUP(A2,A:B,2,FALSE)</f>
+        <f>B2</f>
         <v/>
       </c>
       <c r="M2">
-        <f>B2</f>
-        <v/>
-      </c>
-      <c r="N2">
         <f>INDEX(F:F, MATCH(B2, B:B, 0))</f>
         <v/>
       </c>
-      <c r="P2">
+      <c r="O2">
         <f>COUNTIF(F:F, "&lt;50")</f>
         <v/>
       </c>
@@ -599,14 +590,10 @@
         <v/>
       </c>
       <c r="L3">
-        <f>VLOOKUP(A3,A:B,2,FALSE)</f>
+        <f>B3</f>
         <v/>
       </c>
       <c r="M3">
-        <f>B3</f>
-        <v/>
-      </c>
-      <c r="N3">
         <f>INDEX(F:F, MATCH(B3, B:B, 0))</f>
         <v/>
       </c>
